--- a/Excel/res/services/Excel/ExcelToJsonFile/source/GameConfigs.xlsx
+++ b/Excel/res/services/Excel/ExcelToJsonFile/source/GameConfigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Excel/ExcelToJsonFile/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C3175-2C9E-4D4B-A5C0-A0D606F11EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177461F6-69ED-F34F-9F27-5BA48200E308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" firstSheet="2" activeTab="6" xr2:uid="{F00724DD-AD15-2649-B14F-BA0DB1406F9D}"/>
+    <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" activeTab="1" xr2:uid="{F00724DD-AD15-2649-B14F-BA0DB1406F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="ClientConfig&lt;kv&gt;" sheetId="4" r:id="rId1"/>
@@ -285,10 +285,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>product_redisUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>product_a_redis1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -307,10 +303,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>product_redisPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>product_a_redis2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -329,10 +321,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>product_redisPasswd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>product_a_redis3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -369,10 +357,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>develop_redisUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>develop_a_redis1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -381,10 +365,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>develop_redisPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>develop_a_redis2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -393,10 +373,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>develop_redisPasswd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>develop_a_redis3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -433,10 +409,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>test_redisUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_a_redis1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -445,19 +417,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>test_redisPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_a_redis2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>test_b_redis2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_redisPasswd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1595,6 +1559,42 @@
   <si>
     <t>keystoreAliasPassword_b</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.redisUrl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.redisPasswd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.redisPort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.redisUrl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.redisPort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.redisPasswd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.redisUrl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.redisPort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.redisPasswd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA87D66-6BCD-6443-8FB0-E6A2761E4955}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2529,43 +2529,43 @@
         <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
       <c r="B8" s="3"/>
       <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16">
       <c r="B9" s="3"/>
       <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
@@ -2574,50 +2574,50 @@
         <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
       <c r="B11" s="3"/>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
       <c r="B12" s="3"/>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
       <c r="D13" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -2628,43 +2628,43 @@
         <v>28</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16">
       <c r="B15" s="3"/>
       <c r="C15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16">
       <c r="B16" s="3"/>
       <c r="C16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16">
@@ -2673,50 +2673,50 @@
         <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16">
       <c r="B18" s="3"/>
       <c r="C18" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16">
       <c r="B19" s="3"/>
       <c r="C19" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16">
       <c r="B20" s="3"/>
       <c r="C20" s="9"/>
       <c r="D20" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -2727,43 +2727,43 @@
         <v>28</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>63</v>
+        <v>311</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="16">
       <c r="B22" s="3"/>
       <c r="C22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="16">
       <c r="B23" s="3"/>
       <c r="C23" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>69</v>
+        <v>313</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="16">
@@ -2772,43 +2772,43 @@
         <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="F24" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="16">
       <c r="B25" s="3"/>
       <c r="C25" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="16">
       <c r="B26" s="3"/>
       <c r="C26" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>69</v>
+        <v>313</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="16">
@@ -2828,7 +2828,7 @@
     <row r="29" spans="2:6" ht="16">
       <c r="B29" s="3"/>
       <c r="C29" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>27</v>
@@ -2842,80 +2842,80 @@
         <v>28</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="16">
       <c r="B31" s="3"/>
       <c r="C31" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="16">
       <c r="B32" s="3"/>
       <c r="C32" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="16">
       <c r="B33" s="3"/>
       <c r="C33" s="10" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="16">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="16">
       <c r="B35" s="3"/>
       <c r="C35" s="9"/>
       <c r="D35" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -2923,83 +2923,83 @@
     <row r="36" spans="2:6" ht="16">
       <c r="B36" s="3"/>
       <c r="C36" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="16">
       <c r="B37" s="3"/>
       <c r="C37" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="16">
       <c r="B38" s="3"/>
       <c r="C38" s="10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="16">
       <c r="B39" s="3"/>
       <c r="C39" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="16">
       <c r="B40" s="3"/>
       <c r="C40" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="16">
       <c r="B41" s="3"/>
       <c r="C41" s="9"/>
       <c r="D41" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -3007,76 +3007,76 @@
     <row r="42" spans="2:6" ht="16">
       <c r="B42" s="3"/>
       <c r="C42" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="16">
       <c r="B43" s="3"/>
       <c r="C43" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="16">
       <c r="B44" s="3"/>
       <c r="C44" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="16">
       <c r="B45" s="3"/>
       <c r="C45" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="16">
       <c r="B46" s="3"/>
       <c r="C46" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="16">
@@ -3096,7 +3096,7 @@
     <row r="49" spans="2:6" ht="16">
       <c r="B49" s="3"/>
       <c r="C49" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -3119,7 +3119,7 @@
     <row r="52" spans="2:6" ht="16">
       <c r="B52" s="3"/>
       <c r="C52" s="11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -3128,61 +3128,61 @@
     <row r="53" spans="2:6" ht="16">
       <c r="B53" s="3"/>
       <c r="C53" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="16">
       <c r="B54" s="3"/>
       <c r="C54" s="10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="16">
       <c r="B55" s="3"/>
       <c r="C55" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="16">
       <c r="B56" s="3"/>
       <c r="C56" s="10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="16">
@@ -3311,7 +3311,7 @@
     <row r="1" spans="1:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="1:6" ht="35">
       <c r="C2" s="34" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -3348,7 +3348,7 @@
     <row r="6" spans="1:6" s="8" customFormat="1" ht="26">
       <c r="B6" s="5"/>
       <c r="C6" s="11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -3358,7 +3358,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="9"/>
       <c r="D7" s="15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -3408,7 +3408,7 @@
     <row r="14" spans="1:6" ht="16">
       <c r="B14" s="3"/>
       <c r="C14" s="11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -3418,7 +3418,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
       <c r="D15" s="15" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -3489,7 +3489,7 @@
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
       <c r="C2" s="34" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -3523,7 +3523,7 @@
     <row r="6" spans="2:6" s="8" customFormat="1" ht="19" customHeight="1">
       <c r="B6" s="5"/>
       <c r="C6" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -3532,46 +3532,46 @@
     <row r="7" spans="2:6" ht="16">
       <c r="B7" s="3"/>
       <c r="C7" s="9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="16">
       <c r="B8" s="3"/>
       <c r="C8" s="10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16">
       <c r="B9" s="3"/>
       <c r="C9" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="16">
@@ -3605,7 +3605,7 @@
     <row r="14" spans="2:6" ht="16">
       <c r="B14" s="3"/>
       <c r="C14" s="16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -3614,76 +3614,76 @@
     <row r="15" spans="2:6" ht="16">
       <c r="B15" s="3"/>
       <c r="C15" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16">
       <c r="B16" s="3"/>
       <c r="C16" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16">
       <c r="B17" s="3"/>
       <c r="C17" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16">
       <c r="B18" s="3"/>
       <c r="C18" s="10" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16">
       <c r="B19" s="3"/>
       <c r="C19" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16">
@@ -3717,7 +3717,7 @@
     <row r="24" spans="2:6" ht="16">
       <c r="B24" s="3"/>
       <c r="C24" s="16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -3726,61 +3726,61 @@
     <row r="25" spans="2:6" ht="16">
       <c r="B25" s="3"/>
       <c r="C25" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="16">
       <c r="B26" s="3"/>
       <c r="C26" s="10" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="16">
       <c r="B27" s="3"/>
       <c r="C27" s="9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="16">
       <c r="B28" s="3"/>
       <c r="C28" s="10" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="16">
@@ -3814,7 +3814,7 @@
     <row r="33" spans="2:6" ht="16">
       <c r="B33" s="3"/>
       <c r="C33" s="16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -3823,46 +3823,46 @@
     <row r="34" spans="2:6" ht="16">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="16">
       <c r="B35" s="3"/>
       <c r="C35" s="10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="16">
       <c r="B36" s="3"/>
       <c r="C36" s="9" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="16">
@@ -3938,7 +3938,7 @@
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
       <c r="C2" s="34" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -3963,7 +3963,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>25</v>
@@ -3972,7 +3972,7 @@
     <row r="6" spans="2:6" ht="25">
       <c r="B6" s="5"/>
       <c r="C6" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -3981,46 +3981,46 @@
     <row r="7" spans="2:6" ht="16">
       <c r="B7" s="3"/>
       <c r="C7" s="9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="16">
       <c r="B8" s="3"/>
       <c r="C8" s="10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16">
       <c r="B9" s="3"/>
       <c r="C9" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="16">
@@ -4054,7 +4054,7 @@
     <row r="14" spans="2:6" ht="16">
       <c r="B14" s="3"/>
       <c r="C14" s="16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -4063,76 +4063,76 @@
     <row r="15" spans="2:6" ht="16">
       <c r="B15" s="3"/>
       <c r="C15" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16">
       <c r="B16" s="3"/>
       <c r="C16" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16">
       <c r="B17" s="3"/>
       <c r="C17" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16">
       <c r="B18" s="3"/>
       <c r="C18" s="10" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16">
       <c r="B19" s="3"/>
       <c r="C19" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16">
@@ -4166,7 +4166,7 @@
     <row r="24" spans="2:6" ht="16">
       <c r="B24" s="3"/>
       <c r="C24" s="16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -4175,31 +4175,31 @@
     <row r="25" spans="2:6" ht="16">
       <c r="B25" s="3"/>
       <c r="C25" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="16">
       <c r="B26" s="3"/>
       <c r="C26" s="10" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="16">
@@ -4240,46 +4240,46 @@
     <row r="32" spans="2:6" ht="16">
       <c r="B32" s="3"/>
       <c r="C32" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="16">
       <c r="B33" s="3"/>
       <c r="C33" s="10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="16">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="16">
@@ -4355,7 +4355,7 @@
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
       <c r="C2" s="34" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -4380,7 +4380,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>25</v>
@@ -4389,7 +4389,7 @@
     <row r="6" spans="2:6" s="8" customFormat="1" ht="26">
       <c r="B6" s="5"/>
       <c r="C6" s="17" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -4398,187 +4398,187 @@
     <row r="7" spans="2:6" ht="18">
       <c r="B7" s="3"/>
       <c r="C7" s="18" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18">
       <c r="B8" s="3"/>
       <c r="C8" s="20" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18">
       <c r="B9" s="3"/>
       <c r="C9" s="18" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18">
       <c r="B10" s="3"/>
       <c r="C10" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18">
       <c r="B11" s="3"/>
       <c r="C11" s="18" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="3"/>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18">
       <c r="B13" s="3"/>
       <c r="C13" s="18" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="18">
       <c r="B14" s="3"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18">
       <c r="B15" s="3"/>
       <c r="C15" s="18" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="18">
       <c r="B16" s="3"/>
       <c r="C16" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="18">
       <c r="B17" s="3"/>
       <c r="C17" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18">
       <c r="B18" s="3"/>
       <c r="C18" s="20" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="25">
       <c r="B19" s="5"/>
       <c r="C19" s="17" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -4587,76 +4587,76 @@
     <row r="20" spans="2:6" ht="18">
       <c r="B20" s="3"/>
       <c r="C20" s="18" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18">
       <c r="B21" s="3"/>
       <c r="C21" s="20" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="18">
       <c r="B22" s="3"/>
       <c r="C22" s="18" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="18">
       <c r="B23" s="3"/>
       <c r="C23" s="20" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="18">
       <c r="B24" s="3"/>
       <c r="C24" s="18" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18">
@@ -4708,7 +4708,7 @@
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="2" spans="2:6" ht="35">
       <c r="C2" s="34" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -4755,7 +4755,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>25</v>
@@ -4764,7 +4764,7 @@
     <row r="6" spans="2:6" s="8" customFormat="1" ht="26">
       <c r="B6" s="5"/>
       <c r="C6" s="17" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -4773,91 +4773,91 @@
     <row r="7" spans="2:6" ht="18">
       <c r="B7" s="3"/>
       <c r="C7" s="25" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="19" customHeight="1">
       <c r="B8" s="3"/>
       <c r="C8" s="26" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18">
       <c r="B9" s="3"/>
       <c r="C9" s="28" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18">
       <c r="B10" s="3"/>
       <c r="C10" s="28" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18">
       <c r="B11" s="3"/>
       <c r="C11" s="28" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="3"/>
       <c r="C12" s="28" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18">

--- a/Excel/res/services/Excel/ExcelToJsonFile/source/GameConfigs.xlsx
+++ b/Excel/res/services/Excel/ExcelToJsonFile/source/GameConfigs.xlsx
@@ -8,27 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Excel/ExcelToJsonFile/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177461F6-69ED-F34F-9F27-5BA48200E308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B8CBE6-AB0A-A743-9416-5EEAB3E7BA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" activeTab="1" xr2:uid="{F00724DD-AD15-2649-B14F-BA0DB1406F9D}"/>
+    <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" activeTab="2" xr2:uid="{F00724DD-AD15-2649-B14F-BA0DB1406F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="ClientConfig&lt;kv&gt;" sheetId="4" r:id="rId1"/>
     <sheet name="ServerConfig&lt;kv&gt;" sheetId="5" r:id="rId2"/>
-    <sheet name="BussinessConfig&lt;kv&gt;" sheetId="6" r:id="rId3"/>
-    <sheet name="Sdk_Ios&lt;kv&gt;" sheetId="7" r:id="rId4"/>
-    <sheet name="Sdk_Android&lt;kv&gt;" sheetId="8" r:id="rId5"/>
-    <sheet name="Package_Ipa&lt;kv&gt;" sheetId="9" r:id="rId6"/>
-    <sheet name="Package_Apk&lt;kv&gt;" sheetId="10" r:id="rId7"/>
+    <sheet name="Sdk_Ios&lt;kv&gt;" sheetId="7" r:id="rId3"/>
+    <sheet name="Sdk_Android&lt;kv&gt;" sheetId="8" r:id="rId4"/>
+    <sheet name="Package_Ipa&lt;kv&gt;" sheetId="9" r:id="rId5"/>
+    <sheet name="Package_Apk&lt;kv&gt;" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ServerConfig&lt;kv&gt;'!$C$29:$D$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'BussinessConfig&lt;kv&gt;'!$B$1:$F$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ClientConfig&lt;kv&gt;'!$B$1:$F$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Package_Apk&lt;kv&gt;'!$B$1:$F$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Package_Ipa&lt;kv&gt;'!$B$1:$F$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Sdk_Android&lt;kv&gt;'!$B$1:$F$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sdk_Ios&lt;kv&gt;'!$B$1:$F$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Package_Apk&lt;kv&gt;'!$B$1:$F$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Package_Ipa&lt;kv&gt;'!$B$1:$F$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sdk_Android&lt;kv&gt;'!$B$1:$F$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Sdk_Ios&lt;kv&gt;'!$B$1:$F$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ServerConfig&lt;kv&gt;'!$B$1:$F$49</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
@@ -81,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="309">
   <si>
     <t>客户端参数配置</t>
     <rPh sb="0" eb="7">
@@ -461,19 +459,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>product_mysqlUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>product_a_mysql1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>product_b_mysql1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_mysqlPort</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -496,10 +486,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>product_mysqlUserName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>product_a_mysql3</t>
   </si>
   <si>
@@ -522,18 +508,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>product_mysqlDatabase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>product_a_mysql4</t>
   </si>
   <si>
     <t>product_b_mysql4</t>
-  </si>
-  <si>
-    <t>product_mysqlUserPasswd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>product_a_mysql5</t>
@@ -552,10 +530,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>develop_mysqlUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>develop_a_mysql1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -564,20 +538,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>develop_mysqlPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>develop_a_mysql2</t>
   </si>
   <si>
     <t>develop_b_mysql2</t>
   </si>
   <si>
-    <t>develop_mysqlUserName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>develop_a_mysql3</t>
   </si>
   <si>
@@ -588,30 +554,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>develop_mysqlDatabase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>develop_a_mysql4</t>
   </si>
   <si>
     <t>develop_b_mysql4</t>
   </si>
   <si>
-    <t>develop_mysqlUserPasswd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>develop_a_mysql5</t>
   </si>
   <si>
     <t>develop_b_mysql5</t>
   </si>
   <si>
-    <t>test_mysqlUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_a_mysql1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -620,38 +574,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>test_mysqlPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_a_mysql2</t>
   </si>
   <si>
     <t>test_b_mysql2</t>
   </si>
   <si>
-    <t>test_mysqlUserName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_a_mysql3</t>
   </si>
   <si>
     <t>test_b_mysql3</t>
   </si>
   <si>
-    <t>test_mysqlDatabase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>test_a_mysql4</t>
   </si>
   <si>
     <t>test_b_mysql4</t>
-  </si>
-  <si>
-    <t>test_mysqlUserPasswd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>test_a_mysql5</t>
@@ -756,41 +694,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>业务相关参数配置</t>
-    <rPh sb="0" eb="2">
-      <t>ye'wu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动配置</t>
-    <rPh sb="0" eb="1">
-      <t>hou'taichang'laingpei'zhi</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开服活动</t>
-    <rPh sb="0" eb="4">
-      <t>xin'shou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计参数获取</t>
-    <rPh sb="0" eb="1">
-      <t>xin'yong'hushu'jupei'zhi</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时统计脚本，执行时间间隔</t>
-    <rPh sb="0" eb="13">
-      <t>xin'shou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SDK IOS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1595,6 +1498,51 @@
   <si>
     <t>test.redisPasswd</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.mysqlUrl</t>
+  </si>
+  <si>
+    <t>product.mysqlPort</t>
+  </si>
+  <si>
+    <t>product.mysqlUserName</t>
+  </si>
+  <si>
+    <t>product.mysqlDatabase</t>
+  </si>
+  <si>
+    <t>product.mysqlUserPasswd</t>
+  </si>
+  <si>
+    <t>develop.mysqlUrl</t>
+  </si>
+  <si>
+    <t>develop.mysqlPort</t>
+  </si>
+  <si>
+    <t>develop.mysqlUserName</t>
+  </si>
+  <si>
+    <t>develop.mysqlDatabase</t>
+  </si>
+  <si>
+    <t>develop.mysqlUserPasswd</t>
+  </si>
+  <si>
+    <t>test.mysqlUrl</t>
+  </si>
+  <si>
+    <t>test.mysqlPort</t>
+  </si>
+  <si>
+    <t>test.mysqlUserName</t>
+  </si>
+  <si>
+    <t>test.mysqlDatabase</t>
+  </si>
+  <si>
+    <t>test.mysqlUserPasswd</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1915,9 +1863,6 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="7" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2318,11 +2263,11 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="1:6" ht="35">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -2460,9 +2405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA87D66-6BCD-6443-8FB0-E6A2761E4955}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -2477,11 +2420,11 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="1:6" ht="35">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -2529,7 +2472,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>29</v>
@@ -2544,7 +2487,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>32</v>
@@ -2559,7 +2502,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>35</v>
@@ -2574,7 +2517,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>37</v>
@@ -2589,7 +2532,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>39</v>
@@ -2604,7 +2547,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>41</v>
@@ -2628,7 +2571,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>44</v>
@@ -2643,7 +2586,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>46</v>
@@ -2658,7 +2601,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>48</v>
@@ -2673,7 +2616,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>50</v>
@@ -2688,7 +2631,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>52</v>
@@ -2703,7 +2646,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>54</v>
@@ -2727,7 +2670,7 @@
         <v>28</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>57</v>
@@ -2742,7 +2685,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>59</v>
@@ -2757,7 +2700,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>61</v>
@@ -2772,7 +2715,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>63</v>
@@ -2787,7 +2730,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>65</v>
@@ -2802,7 +2745,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>67</v>
@@ -2842,13 +2785,13 @@
         <v>28</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="16">
@@ -2857,43 +2800,43 @@
         <v>31</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="16">
       <c r="B32" s="3"/>
       <c r="C32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="16">
       <c r="B33" s="3"/>
       <c r="C33" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="16">
@@ -2902,13 +2845,13 @@
         <v>34</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="16">
@@ -2923,16 +2866,16 @@
     <row r="36" spans="2:6" ht="16">
       <c r="B36" s="3"/>
       <c r="C36" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="16">
@@ -2941,43 +2884,43 @@
         <v>31</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>300</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="16">
       <c r="B38" s="3"/>
       <c r="C38" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="16">
       <c r="B39" s="3"/>
       <c r="C39" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="16">
@@ -2986,13 +2929,13 @@
         <v>34</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="16">
@@ -3007,16 +2950,16 @@
     <row r="42" spans="2:6" ht="16">
       <c r="B42" s="3"/>
       <c r="C42" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="16">
@@ -3025,43 +2968,43 @@
         <v>31</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="16">
       <c r="B44" s="3"/>
       <c r="C44" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>110</v>
+        <v>306</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="16">
       <c r="B45" s="3"/>
       <c r="C45" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>113</v>
+        <v>307</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="16">
@@ -3070,13 +3013,13 @@
         <v>34</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="16">
@@ -3096,7 +3039,7 @@
     <row r="49" spans="2:6" ht="16">
       <c r="B49" s="3"/>
       <c r="C49" s="11" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -3119,7 +3062,7 @@
     <row r="52" spans="2:6" ht="16">
       <c r="B52" s="3"/>
       <c r="C52" s="11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -3128,61 +3071,61 @@
     <row r="53" spans="2:6" ht="16">
       <c r="B53" s="3"/>
       <c r="C53" s="9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="16">
       <c r="B54" s="3"/>
       <c r="C54" s="10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="16">
       <c r="B55" s="3"/>
       <c r="C55" s="9" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="16">
       <c r="B56" s="3"/>
       <c r="C56" s="10" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="16">
@@ -3290,188 +3233,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD84AB31-6BDC-624B-9619-8B0542BD293B}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="2.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="11"/>
-    <row r="2" spans="1:6" ht="35">
-      <c r="C2" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="19" customHeight="1">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" ht="34">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="26">
-      <c r="B6" s="5"/>
-      <c r="C6" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="16">
-      <c r="B7" s="3"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="16">
-      <c r="B8" s="3"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="16">
-      <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="16">
-      <c r="B10" s="3"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="16">
-      <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="16">
-      <c r="B12" s="3"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="16">
-      <c r="B13" s="3"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="16">
-      <c r="B14" s="3"/>
-      <c r="C14" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="16">
-      <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="16">
-      <c r="B16" s="3"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="2:6" ht="16">
-      <c r="B17" s="3"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" ht="16">
-      <c r="B18" s="3"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8http://www.vertex42.com/ExcelTemplates/kids-chore-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2214F95-B1D3-644E-B243-570BB800EE68}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="B1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -3488,11 +3256,11 @@
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -3522,56 +3290,56 @@
     </row>
     <row r="6" spans="2:6" s="8" customFormat="1" ht="19" customHeight="1">
       <c r="B6" s="5"/>
-      <c r="C6" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="C6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="16">
       <c r="B7" s="3"/>
       <c r="C7" s="9" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="16">
       <c r="B8" s="3"/>
       <c r="C8" s="10" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16">
       <c r="B9" s="3"/>
       <c r="C9" s="9" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="16">
@@ -3604,86 +3372,86 @@
     </row>
     <row r="14" spans="2:6" ht="16">
       <c r="B14" s="3"/>
-      <c r="C14" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" ht="16">
       <c r="B15" s="3"/>
       <c r="C15" s="9" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16">
       <c r="B16" s="3"/>
       <c r="C16" s="10" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16">
       <c r="B17" s="3"/>
       <c r="C17" s="9" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16">
       <c r="B18" s="3"/>
       <c r="C18" s="10" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16">
       <c r="B19" s="3"/>
       <c r="C19" s="9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16">
@@ -3716,71 +3484,71 @@
     </row>
     <row r="24" spans="2:6" ht="16">
       <c r="B24" s="3"/>
-      <c r="C24" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="C24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" ht="16">
       <c r="B25" s="3"/>
       <c r="C25" s="9" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="16">
       <c r="B26" s="3"/>
       <c r="C26" s="10" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="16">
       <c r="B27" s="3"/>
       <c r="C27" s="9" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="16">
       <c r="B28" s="3"/>
       <c r="C28" s="10" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="16">
@@ -3813,56 +3581,56 @@
     </row>
     <row r="33" spans="2:6" ht="16">
       <c r="B33" s="3"/>
-      <c r="C33" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="C33" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="2:6" ht="16">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="16">
       <c r="B35" s="3"/>
       <c r="C35" s="10" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="16">
       <c r="B36" s="3"/>
       <c r="C36" s="9" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="16">
@@ -3913,7 +3681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EC4B45-5C66-3743-A3F2-F08E6D588ABF}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -3937,11 +3705,11 @@
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -3963,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>25</v>
@@ -3971,56 +3739,56 @@
     </row>
     <row r="6" spans="2:6" ht="25">
       <c r="B6" s="5"/>
-      <c r="C6" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="C6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="16">
       <c r="B7" s="3"/>
       <c r="C7" s="9" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="16">
       <c r="B8" s="3"/>
       <c r="C8" s="10" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16">
       <c r="B9" s="3"/>
       <c r="C9" s="9" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="16">
@@ -4053,86 +3821,86 @@
     </row>
     <row r="14" spans="2:6" ht="16">
       <c r="B14" s="3"/>
-      <c r="C14" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" ht="16">
       <c r="B15" s="3"/>
       <c r="C15" s="9" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16">
       <c r="B16" s="3"/>
       <c r="C16" s="10" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16">
       <c r="B17" s="3"/>
       <c r="C17" s="9" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16">
       <c r="B18" s="3"/>
       <c r="C18" s="10" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16">
       <c r="B19" s="3"/>
       <c r="C19" s="9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16">
@@ -4165,41 +3933,41 @@
     </row>
     <row r="24" spans="2:6" ht="16">
       <c r="B24" s="3"/>
-      <c r="C24" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="C24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" ht="16">
       <c r="B25" s="3"/>
       <c r="C25" s="9" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="16">
       <c r="B26" s="3"/>
       <c r="C26" s="10" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="16">
@@ -4232,54 +4000,54 @@
     </row>
     <row r="31" spans="2:6" ht="16">
       <c r="B31" s="3"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="2:6" ht="16">
       <c r="B32" s="3"/>
       <c r="C32" s="9" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="16">
       <c r="B33" s="3"/>
       <c r="C33" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="E33" s="10" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="16">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="F34" s="9" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="16">
@@ -4330,7 +4098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F999269-106D-FB41-88DB-91A7C17E041A}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -4354,11 +4122,11 @@
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -4380,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>25</v>
@@ -4388,297 +4156,297 @@
     </row>
     <row r="6" spans="2:6" s="8" customFormat="1" ht="26">
       <c r="B6" s="5"/>
-      <c r="C6" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" ht="18">
       <c r="B7" s="3"/>
-      <c r="C7" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>223</v>
+      <c r="C7" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18">
       <c r="B8" s="3"/>
-      <c r="C8" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>226</v>
+      <c r="E8" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18">
       <c r="B9" s="3"/>
-      <c r="C9" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>230</v>
+      <c r="C9" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18">
       <c r="B10" s="3"/>
-      <c r="C10" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>234</v>
+      <c r="C10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18">
       <c r="B11" s="3"/>
-      <c r="C11" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>234</v>
+      <c r="C11" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="3"/>
-      <c r="C12" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>240</v>
+      <c r="C12" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18">
       <c r="B13" s="3"/>
-      <c r="C13" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>244</v>
+      <c r="C13" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="18">
       <c r="B14" s="3"/>
-      <c r="C14" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>248</v>
+      <c r="C14" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18">
       <c r="B15" s="3"/>
-      <c r="C15" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>252</v>
+      <c r="C15" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="18">
       <c r="B16" s="3"/>
-      <c r="C16" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>256</v>
+      <c r="C16" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="18">
       <c r="B17" s="3"/>
-      <c r="C17" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>260</v>
+      <c r="C17" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18">
       <c r="B18" s="3"/>
-      <c r="C18" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>264</v>
+      <c r="C18" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="25">
       <c r="B19" s="5"/>
-      <c r="C19" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="C19" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="2:6" ht="18">
       <c r="B20" s="3"/>
-      <c r="C20" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>269</v>
+      <c r="C20" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18">
       <c r="B21" s="3"/>
-      <c r="C21" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>273</v>
+      <c r="C21" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="18">
       <c r="B22" s="3"/>
-      <c r="C22" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>277</v>
+      <c r="C22" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="18">
       <c r="B23" s="3"/>
-      <c r="C23" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>281</v>
+      <c r="C23" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="18">
       <c r="B24" s="3"/>
-      <c r="C24" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>285</v>
+      <c r="C24" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18">
       <c r="B25" s="3"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="2:6" ht="18">
       <c r="B26" s="3"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="2:6" ht="18">
       <c r="B27" s="3"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="2:6" ht="25">
       <c r="B28" s="3"/>
@@ -4701,7 +4469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D094E8BB-D85B-A34F-8F5D-5EC60301756E}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -4716,34 +4484,34 @@
   <cols>
     <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11">
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:6" ht="34">
@@ -4755,7 +4523,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>25</v>
@@ -4763,129 +4531,129 @@
     </row>
     <row r="6" spans="2:6" s="8" customFormat="1" ht="26">
       <c r="B6" s="5"/>
-      <c r="C6" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="C6" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" ht="18">
       <c r="B7" s="3"/>
-      <c r="C7" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>223</v>
+      <c r="C7" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="19" customHeight="1">
       <c r="B8" s="3"/>
-      <c r="C8" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>288</v>
+      <c r="E8" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18">
       <c r="B9" s="3"/>
-      <c r="C9" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>292</v>
+      <c r="C9" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18">
       <c r="B10" s="3"/>
-      <c r="C10" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>296</v>
+      <c r="C10" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18">
       <c r="B11" s="3"/>
-      <c r="C11" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>300</v>
+      <c r="C11" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="3"/>
-      <c r="C12" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>304</v>
+      <c r="C12" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18">
       <c r="B13" s="3"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="2:6" ht="18">
       <c r="B14" s="3"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="2:6" ht="18">
       <c r="B15" s="3"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="3"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="3"/>
     </row>
   </sheetData>
